--- a/OUTPUT/Sim_0/sim0_filelist.xlsx
+++ b/OUTPUT/Sim_0/sim0_filelist.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scott\Dropbox\NBI\Vorticity\OUTPUT\Sim_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14390"/>
   </bookViews>
   <sheets>
     <sheet name="dataout" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="480">
   <si>
     <t>0_29_0</t>
   </si>
@@ -1456,12 +1456,18 @@
   </si>
   <si>
     <t>Number of Filaments</t>
+  </si>
+  <si>
+    <t>Average folder size</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[&lt;1000000]0.00,&quot; KB&quot;;[&lt;1000000000]0.00,,&quot; MB&quot;;0.00,,,&quot; GB&quot;"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1939,8 +1945,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2262,24 +2272,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C422"/>
+  <dimension ref="A1:C424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A404" workbookViewId="0">
+      <selection activeCell="C424" sqref="C424"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>476</v>
       </c>
@@ -2290,7 +2300,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2323,7 +2333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2334,7 +2344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2345,7 +2355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2367,7 +2377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2378,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2400,7 +2410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2411,7 +2421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2422,7 +2432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2433,7 +2443,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2444,7 +2454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2455,7 +2465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2466,7 +2476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -2477,7 +2487,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -2488,7 +2498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -2499,7 +2509,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2510,7 +2520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2521,7 +2531,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2532,7 +2542,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2543,7 +2553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2554,7 +2564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -2565,7 +2575,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -2576,7 +2586,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2587,7 +2597,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -2598,7 +2608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2609,7 +2619,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2620,7 +2630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2631,7 +2641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2642,7 +2652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2653,7 +2663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2664,7 +2674,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2675,7 +2685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2686,7 +2696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2708,7 +2718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -2719,7 +2729,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -2730,7 +2740,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -2741,7 +2751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -2752,7 +2762,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -2763,7 +2773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -2774,7 +2784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -2785,7 +2795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -2796,7 +2806,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2807,7 +2817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -2829,7 +2839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -2840,7 +2850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -2851,7 +2861,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -2862,7 +2872,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -2873,7 +2883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -2884,7 +2894,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -2895,7 +2905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -2906,7 +2916,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -2917,7 +2927,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -2928,7 +2938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -2939,7 +2949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -2950,7 +2960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -2961,7 +2971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -2972,7 +2982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -2983,7 +2993,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -2994,7 +3004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -3005,7 +3015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3016,7 +3026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -3027,7 +3037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -3038,7 +3048,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -3049,7 +3059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -3071,7 +3081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -3082,7 +3092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -3093,7 +3103,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>90</v>
       </c>
@@ -3104,7 +3114,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>94</v>
       </c>
@@ -3126,7 +3136,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>95</v>
       </c>
@@ -3137,7 +3147,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>96</v>
       </c>
@@ -3148,7 +3158,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>97</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>99</v>
       </c>
@@ -3170,7 +3180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>101</v>
       </c>
@@ -3181,7 +3191,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -3192,7 +3202,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>105</v>
       </c>
@@ -3203,7 +3213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>106</v>
       </c>
@@ -3214,7 +3224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>107</v>
       </c>
@@ -3225,7 +3235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>108</v>
       </c>
@@ -3236,7 +3246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -3247,7 +3257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>110</v>
       </c>
@@ -3258,7 +3268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>111</v>
       </c>
@@ -3269,7 +3279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -3280,7 +3290,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>113</v>
       </c>
@@ -3291,7 +3301,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -3302,7 +3312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -3324,7 +3334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -3335,7 +3345,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>118</v>
       </c>
@@ -3346,7 +3356,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -3357,7 +3367,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>120</v>
       </c>
@@ -3368,7 +3378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>121</v>
       </c>
@@ -3379,7 +3389,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>122</v>
       </c>
@@ -3390,7 +3400,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -3401,7 +3411,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -3412,7 +3422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -3423,7 +3433,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -3434,7 +3444,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -3445,7 +3455,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>130</v>
       </c>
@@ -3456,7 +3466,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -3467,7 +3477,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>133</v>
       </c>
@@ -3478,7 +3488,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>134</v>
       </c>
@@ -3489,7 +3499,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -3500,7 +3510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -3511,7 +3521,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>139</v>
       </c>
@@ -3522,7 +3532,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>140</v>
       </c>
@@ -3533,7 +3543,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>141</v>
       </c>
@@ -3544,7 +3554,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>143</v>
       </c>
@@ -3555,7 +3565,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>145</v>
       </c>
@@ -3566,7 +3576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>147</v>
       </c>
@@ -3577,7 +3587,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>149</v>
       </c>
@@ -3588,7 +3598,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>151</v>
       </c>
@@ -3599,7 +3609,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>153</v>
       </c>
@@ -3610,7 +3620,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>154</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>156</v>
       </c>
@@ -3632,7 +3642,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>157</v>
       </c>
@@ -3643,7 +3653,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>158</v>
       </c>
@@ -3654,7 +3664,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>159</v>
       </c>
@@ -3665,7 +3675,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -3676,7 +3686,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -3687,7 +3697,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>164</v>
       </c>
@@ -3698,7 +3708,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>165</v>
       </c>
@@ -3709,7 +3719,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>166</v>
       </c>
@@ -3720,7 +3730,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>167</v>
       </c>
@@ -3731,7 +3741,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>168</v>
       </c>
@@ -3742,7 +3752,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>169</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>171</v>
       </c>
@@ -3764,7 +3774,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>173</v>
       </c>
@@ -3775,7 +3785,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>174</v>
       </c>
@@ -3786,7 +3796,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>175</v>
       </c>
@@ -3797,7 +3807,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>176</v>
       </c>
@@ -3808,7 +3818,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>177</v>
       </c>
@@ -3819,7 +3829,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>178</v>
       </c>
@@ -3830,7 +3840,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>179</v>
       </c>
@@ -3841,7 +3851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>180</v>
       </c>
@@ -3852,7 +3862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>181</v>
       </c>
@@ -3863,7 +3873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>182</v>
       </c>
@@ -3874,7 +3884,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>183</v>
       </c>
@@ -3885,7 +3895,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>185</v>
       </c>
@@ -3896,7 +3906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>187</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>188</v>
       </c>
@@ -3918,7 +3928,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>189</v>
       </c>
@@ -3929,7 +3939,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>190</v>
       </c>
@@ -3940,7 +3950,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>191</v>
       </c>
@@ -3951,7 +3961,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>192</v>
       </c>
@@ -3962,7 +3972,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>193</v>
       </c>
@@ -3973,7 +3983,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>194</v>
       </c>
@@ -3984,7 +3994,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>195</v>
       </c>
@@ -3995,7 +4005,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>196</v>
       </c>
@@ -4006,7 +4016,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>197</v>
       </c>
@@ -4017,7 +4027,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>198</v>
       </c>
@@ -4028,7 +4038,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>199</v>
       </c>
@@ -4039,7 +4049,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>201</v>
       </c>
@@ -4050,7 +4060,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>202</v>
       </c>
@@ -4061,7 +4071,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>203</v>
       </c>
@@ -4072,7 +4082,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>204</v>
       </c>
@@ -4083,7 +4093,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>205</v>
       </c>
@@ -4094,7 +4104,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -4105,7 +4115,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>207</v>
       </c>
@@ -4116,7 +4126,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>208</v>
       </c>
@@ -4127,7 +4137,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>209</v>
       </c>
@@ -4138,7 +4148,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>210</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>211</v>
       </c>
@@ -4160,7 +4170,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>212</v>
       </c>
@@ -4171,7 +4181,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>213</v>
       </c>
@@ -4182,7 +4192,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>214</v>
       </c>
@@ -4193,7 +4203,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>215</v>
       </c>
@@ -4204,7 +4214,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>216</v>
       </c>
@@ -4215,7 +4225,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>217</v>
       </c>
@@ -4226,7 +4236,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>218</v>
       </c>
@@ -4237,7 +4247,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>219</v>
       </c>
@@ -4248,7 +4258,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>220</v>
       </c>
@@ -4259,7 +4269,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>221</v>
       </c>
@@ -4270,7 +4280,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>222</v>
       </c>
@@ -4281,7 +4291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>223</v>
       </c>
@@ -4292,7 +4302,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>224</v>
       </c>
@@ -4303,7 +4313,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>225</v>
       </c>
@@ -4314,7 +4324,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>226</v>
       </c>
@@ -4325,7 +4335,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>227</v>
       </c>
@@ -4336,7 +4346,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>228</v>
       </c>
@@ -4347,7 +4357,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>229</v>
       </c>
@@ -4358,7 +4368,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>230</v>
       </c>
@@ -4369,7 +4379,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>231</v>
       </c>
@@ -4380,7 +4390,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>232</v>
       </c>
@@ -4391,7 +4401,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>233</v>
       </c>
@@ -4402,7 +4412,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>234</v>
       </c>
@@ -4413,7 +4423,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>235</v>
       </c>
@@ -4424,7 +4434,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>236</v>
       </c>
@@ -4435,7 +4445,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>237</v>
       </c>
@@ -4446,7 +4456,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>238</v>
       </c>
@@ -4457,7 +4467,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>239</v>
       </c>
@@ -4468,7 +4478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>240</v>
       </c>
@@ -4479,7 +4489,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>241</v>
       </c>
@@ -4490,7 +4500,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>242</v>
       </c>
@@ -4501,7 +4511,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>243</v>
       </c>
@@ -4512,7 +4522,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>244</v>
       </c>
@@ -4523,7 +4533,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>245</v>
       </c>
@@ -4534,7 +4544,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>246</v>
       </c>
@@ -4545,7 +4555,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>247</v>
       </c>
@@ -4556,7 +4566,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>248</v>
       </c>
@@ -4567,7 +4577,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>249</v>
       </c>
@@ -4578,7 +4588,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>250</v>
       </c>
@@ -4589,7 +4599,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>251</v>
       </c>
@@ -4600,7 +4610,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>252</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>253</v>
       </c>
@@ -4622,7 +4632,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>255</v>
       </c>
@@ -4633,7 +4643,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>257</v>
       </c>
@@ -4644,7 +4654,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>258</v>
       </c>
@@ -4655,7 +4665,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>259</v>
       </c>
@@ -4666,7 +4676,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>260</v>
       </c>
@@ -4677,7 +4687,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>261</v>
       </c>
@@ -4688,7 +4698,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>262</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>263</v>
       </c>
@@ -4710,7 +4720,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>264</v>
       </c>
@@ -4721,7 +4731,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>265</v>
       </c>
@@ -4732,7 +4742,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>266</v>
       </c>
@@ -4743,7 +4753,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>267</v>
       </c>
@@ -4754,7 +4764,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>268</v>
       </c>
@@ -4765,7 +4775,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>269</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>270</v>
       </c>
@@ -4787,7 +4797,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>271</v>
       </c>
@@ -4798,7 +4808,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>272</v>
       </c>
@@ -4809,7 +4819,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>273</v>
       </c>
@@ -4820,7 +4830,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>274</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>275</v>
       </c>
@@ -4842,7 +4852,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>276</v>
       </c>
@@ -4853,7 +4863,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>277</v>
       </c>
@@ -4864,7 +4874,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>278</v>
       </c>
@@ -4875,7 +4885,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>279</v>
       </c>
@@ -4886,7 +4896,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>280</v>
       </c>
@@ -4897,7 +4907,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>281</v>
       </c>
@@ -4908,7 +4918,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>282</v>
       </c>
@@ -4919,7 +4929,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>283</v>
       </c>
@@ -4930,7 +4940,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>284</v>
       </c>
@@ -4941,7 +4951,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>285</v>
       </c>
@@ -4952,7 +4962,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>286</v>
       </c>
@@ -4963,7 +4973,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>287</v>
       </c>
@@ -4974,7 +4984,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>288</v>
       </c>
@@ -4985,7 +4995,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>289</v>
       </c>
@@ -4996,7 +5006,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>290</v>
       </c>
@@ -5007,7 +5017,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>291</v>
       </c>
@@ -5018,7 +5028,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>292</v>
       </c>
@@ -5029,7 +5039,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>294</v>
       </c>
@@ -5040,7 +5050,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>295</v>
       </c>
@@ -5051,7 +5061,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>296</v>
       </c>
@@ -5062,7 +5072,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>297</v>
       </c>
@@ -5073,7 +5083,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>298</v>
       </c>
@@ -5084,7 +5094,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>299</v>
       </c>
@@ -5095,7 +5105,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>300</v>
       </c>
@@ -5106,7 +5116,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>301</v>
       </c>
@@ -5117,7 +5127,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>302</v>
       </c>
@@ -5128,7 +5138,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>303</v>
       </c>
@@ -5139,7 +5149,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>304</v>
       </c>
@@ -5150,7 +5160,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>305</v>
       </c>
@@ -5161,7 +5171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>306</v>
       </c>
@@ -5172,7 +5182,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>307</v>
       </c>
@@ -5183,7 +5193,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>308</v>
       </c>
@@ -5194,7 +5204,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>309</v>
       </c>
@@ -5205,7 +5215,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>310</v>
       </c>
@@ -5216,7 +5226,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>311</v>
       </c>
@@ -5227,7 +5237,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>312</v>
       </c>
@@ -5238,7 +5248,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>313</v>
       </c>
@@ -5249,7 +5259,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>314</v>
       </c>
@@ -5260,7 +5270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>315</v>
       </c>
@@ -5271,7 +5281,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>316</v>
       </c>
@@ -5282,7 +5292,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>317</v>
       </c>
@@ -5293,7 +5303,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>318</v>
       </c>
@@ -5304,7 +5314,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>319</v>
       </c>
@@ -5315,7 +5325,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>320</v>
       </c>
@@ -5326,7 +5336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>321</v>
       </c>
@@ -5337,7 +5347,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>322</v>
       </c>
@@ -5348,7 +5358,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>323</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>324</v>
       </c>
@@ -5370,7 +5380,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>325</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>326</v>
       </c>
@@ -5392,7 +5402,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>327</v>
       </c>
@@ -5403,7 +5413,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>329</v>
       </c>
@@ -5414,7 +5424,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>331</v>
       </c>
@@ -5425,7 +5435,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>333</v>
       </c>
@@ -5436,7 +5446,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>334</v>
       </c>
@@ -5447,7 +5457,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>336</v>
       </c>
@@ -5458,7 +5468,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>337</v>
       </c>
@@ -5469,7 +5479,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>338</v>
       </c>
@@ -5480,7 +5490,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>339</v>
       </c>
@@ -5491,7 +5501,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>340</v>
       </c>
@@ -5502,7 +5512,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>341</v>
       </c>
@@ -5513,7 +5523,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>342</v>
       </c>
@@ -5524,7 +5534,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>343</v>
       </c>
@@ -5535,7 +5545,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>344</v>
       </c>
@@ -5546,7 +5556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>345</v>
       </c>
@@ -5557,7 +5567,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>346</v>
       </c>
@@ -5568,7 +5578,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>347</v>
       </c>
@@ -5579,7 +5589,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>348</v>
       </c>
@@ -5590,7 +5600,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>349</v>
       </c>
@@ -5601,7 +5611,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>350</v>
       </c>
@@ -5612,7 +5622,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>351</v>
       </c>
@@ -5623,7 +5633,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>352</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>353</v>
       </c>
@@ -5645,7 +5655,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>354</v>
       </c>
@@ -5656,7 +5666,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>355</v>
       </c>
@@ -5667,7 +5677,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>356</v>
       </c>
@@ -5678,7 +5688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>357</v>
       </c>
@@ -5689,7 +5699,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>358</v>
       </c>
@@ -5700,7 +5710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>359</v>
       </c>
@@ -5711,7 +5721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>360</v>
       </c>
@@ -5722,7 +5732,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>361</v>
       </c>
@@ -5733,7 +5743,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>362</v>
       </c>
@@ -5744,7 +5754,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>363</v>
       </c>
@@ -5755,7 +5765,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>364</v>
       </c>
@@ -5766,7 +5776,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>365</v>
       </c>
@@ -5777,7 +5787,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>366</v>
       </c>
@@ -5788,7 +5798,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>367</v>
       </c>
@@ -5799,7 +5809,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>368</v>
       </c>
@@ -5810,7 +5820,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>369</v>
       </c>
@@ -5821,7 +5831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>370</v>
       </c>
@@ -5832,7 +5842,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>371</v>
       </c>
@@ -5843,7 +5853,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>372</v>
       </c>
@@ -5854,7 +5864,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>373</v>
       </c>
@@ -5865,7 +5875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>374</v>
       </c>
@@ -5876,7 +5886,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>375</v>
       </c>
@@ -5887,7 +5897,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>376</v>
       </c>
@@ -5898,7 +5908,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>377</v>
       </c>
@@ -5909,7 +5919,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>378</v>
       </c>
@@ -5920,7 +5930,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>379</v>
       </c>
@@ -5931,7 +5941,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>380</v>
       </c>
@@ -5942,7 +5952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>381</v>
       </c>
@@ -5953,7 +5963,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>383</v>
       </c>
@@ -5964,7 +5974,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>385</v>
       </c>
@@ -5975,7 +5985,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>386</v>
       </c>
@@ -5986,7 +5996,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>387</v>
       </c>
@@ -5997,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>388</v>
       </c>
@@ -6008,7 +6018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>389</v>
       </c>
@@ -6019,7 +6029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>390</v>
       </c>
@@ -6030,7 +6040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>391</v>
       </c>
@@ -6041,7 +6051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>392</v>
       </c>
@@ -6052,7 +6062,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>394</v>
       </c>
@@ -6063,7 +6073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>395</v>
       </c>
@@ -6074,7 +6084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>396</v>
       </c>
@@ -6085,7 +6095,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>397</v>
       </c>
@@ -6096,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>398</v>
       </c>
@@ -6107,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>399</v>
       </c>
@@ -6118,7 +6128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>400</v>
       </c>
@@ -6129,7 +6139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>401</v>
       </c>
@@ -6140,7 +6150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>402</v>
       </c>
@@ -6151,7 +6161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>403</v>
       </c>
@@ -6162,7 +6172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>404</v>
       </c>
@@ -6173,7 +6183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>405</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>406</v>
       </c>
@@ -6195,7 +6205,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>407</v>
       </c>
@@ -6206,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>408</v>
       </c>
@@ -6217,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>409</v>
       </c>
@@ -6228,7 +6238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>410</v>
       </c>
@@ -6239,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>411</v>
       </c>
@@ -6250,7 +6260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>412</v>
       </c>
@@ -6261,7 +6271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>413</v>
       </c>
@@ -6272,7 +6282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>414</v>
       </c>
@@ -6283,7 +6293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>415</v>
       </c>
@@ -6294,7 +6304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>416</v>
       </c>
@@ -6305,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>417</v>
       </c>
@@ -6316,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>418</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>419</v>
       </c>
@@ -6338,7 +6348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>420</v>
       </c>
@@ -6349,7 +6359,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>422</v>
       </c>
@@ -6360,7 +6370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>423</v>
       </c>
@@ -6371,7 +6381,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>424</v>
       </c>
@@ -6382,7 +6392,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>425</v>
       </c>
@@ -6393,7 +6403,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>426</v>
       </c>
@@ -6404,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>427</v>
       </c>
@@ -6415,7 +6425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>428</v>
       </c>
@@ -6426,7 +6436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>429</v>
       </c>
@@ -6437,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>430</v>
       </c>
@@ -6448,7 +6458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>431</v>
       </c>
@@ -6459,7 +6469,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>432</v>
       </c>
@@ -6470,7 +6480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>433</v>
       </c>
@@ -6481,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>434</v>
       </c>
@@ -6492,7 +6502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>435</v>
       </c>
@@ -6503,7 +6513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>436</v>
       </c>
@@ -6514,7 +6524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>437</v>
       </c>
@@ -6525,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>438</v>
       </c>
@@ -6536,7 +6546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>439</v>
       </c>
@@ -6547,7 +6557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>440</v>
       </c>
@@ -6558,7 +6568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>441</v>
       </c>
@@ -6569,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>442</v>
       </c>
@@ -6580,7 +6590,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>443</v>
       </c>
@@ -6591,7 +6601,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>444</v>
       </c>
@@ -6602,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>445</v>
       </c>
@@ -6613,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>446</v>
       </c>
@@ -6624,7 +6634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>447</v>
       </c>
@@ -6635,7 +6645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>448</v>
       </c>
@@ -6646,7 +6656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>449</v>
       </c>
@@ -6657,7 +6667,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>450</v>
       </c>
@@ -6668,7 +6678,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>451</v>
       </c>
@@ -6679,7 +6689,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>452</v>
       </c>
@@ -6690,7 +6700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>453</v>
       </c>
@@ -6701,7 +6711,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>454</v>
       </c>
@@ -6712,7 +6722,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>455</v>
       </c>
@@ -6723,7 +6733,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>457</v>
       </c>
@@ -6734,7 +6744,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>458</v>
       </c>
@@ -6745,7 +6755,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>459</v>
       </c>
@@ -6756,7 +6766,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>460</v>
       </c>
@@ -6767,7 +6777,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>462</v>
       </c>
@@ -6778,7 +6788,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>463</v>
       </c>
@@ -6789,7 +6799,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>464</v>
       </c>
@@ -6800,7 +6810,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>465</v>
       </c>
@@ -6811,7 +6821,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>466</v>
       </c>
@@ -6822,7 +6832,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>467</v>
       </c>
@@ -6833,7 +6843,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>468</v>
       </c>
@@ -6844,7 +6854,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>469</v>
       </c>
@@ -6855,7 +6865,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>470</v>
       </c>
@@ -6866,7 +6876,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>471</v>
       </c>
@@ -6877,7 +6887,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>472</v>
       </c>
@@ -6888,7 +6898,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>473</v>
       </c>
@@ -6899,7 +6909,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>474</v>
       </c>
@@ -6908,6 +6918,15 @@
       </c>
       <c r="C422" t="s">
         <v>456</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A424" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B424" s="1">
+        <f>AVERAGE(B3:B422)</f>
+        <v>4803259.3523809528</v>
       </c>
     </row>
   </sheetData>
